--- a/dataset/data_Example1.xlsx
+++ b/dataset/data_Example1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meunieb\Downloads\Nowcasting_toolbox-main\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E8A672-E4A0-4EB7-9024-DF2A60BE5A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660F3D2A-FFC8-410E-9B40-33D8CF0696F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="20" r:id="rId1"/>
@@ -940,13 +940,13 @@
   </sheetPr>
   <dimension ref="A1:Z653"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A592" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A648" sqref="A648"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="26" width="19.81640625" style="15" customWidth="1"/>
     <col min="27" max="16384" width="9.1796875" style="1"/>
   </cols>
@@ -34761,13 +34761,13 @@
   </sheetPr>
   <dimension ref="A1:C307"/>
   <sheetViews>
-    <sheetView topLeftCell="A185" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A185" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A218" sqref="A218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.81640625" customWidth="1"/>
     <col min="3" max="3" width="18.453125" customWidth="1"/>
   </cols>
